--- a/contour_experiment_runsheet_CCD_with_optima.xlsx
+++ b/contour_experiment_runsheet_CCD_with_optima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Ikastekoa\5\NAEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D3A600-C708-4873-A2E1-A9BAC8C46900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45DA564-E9E7-4B09-86AC-DB89E18953EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>A,Mid(5.25g),45.0,Mid(92.5cm),Low,202,1,2,1,358.2401,6,CCD point (B=0; C=1; D=0) at Low speed,</t>
   </si>
   <si>
-    <t>A,Mid(5.25g),22.5,Mid(92.5cm),Low,203,1,3,1,,414.30425,CCD point (B=0; C=0; D=0) at Low speed,</t>
-  </si>
-  <si>
     <t>A,Normal,45.0,Low,Low,204,1,4,1,462.08224,6,CCD point (B=-1; C=1; D=-1) at Low speed,</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>A,Normal,0.0,High,Low,242,1,20,3,526.4218,16,Best-guess low-speed optimum (confirm) (rep 3/3),</t>
+  </si>
+  <si>
+    <t>A,Mid(5.25g),22.5,Mid(92.5cm),Low,203,1,3,1,414.304,25,CCD point (B=0; C=0; D=0) at Low speed,</t>
   </si>
 </sst>
 </file>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,22 +610,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7">
         <v>8.4</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8">
         <f>SQRT((L7*40)^2+(M7*40)^2)</f>
@@ -645,17 +645,17 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11">
         <v>21</v>
@@ -663,37 +663,37 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>15.3</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L19">
         <f>SQRT((L18*40)^2+(M18*40)^2)</f>
@@ -713,97 +713,97 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L38">
         <v>12.6</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39">
         <f>SQRT((L38*40)^2+(M38*40)^2)</f>
@@ -823,22 +823,22 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
